--- a/Reference Files/TREV Cookbook.xlsx
+++ b/Reference Files/TREV Cookbook.xlsx
@@ -19288,8 +19288,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000B04E478543B71439A8B446FAE864F93" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="17c7b3b50280f4f324f9f17e113bd2f3">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cedb6cce-4789-47d7-80e7-084ae43e5aeb" xmlns:ns3="451e9e83-0d82-4a6b-ab34-314dfff0ce35" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd680a837a593db066b77fe3f31b4b85" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000B04E478543B71439A8B446FAE864F93" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ab1d43c324b5e14d8333cd633f6ee0a0">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="cedb6cce-4789-47d7-80e7-084ae43e5aeb" xmlns:ns3="451e9e83-0d82-4a6b-ab34-314dfff0ce35" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bac3fe62d9fb2ad2b67ec932b03bcfea" ns1:_="" ns2:_="" ns3:_="">
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="cedb6cce-4789-47d7-80e7-084ae43e5aeb"/>
     <xsd:import namespace="451e9e83-0d82-4a6b-ab34-314dfff0ce35"/>
     <xsd:element name="properties">
@@ -19314,11 +19315,28 @@
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:_Flow_SignoffStatus" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="26" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="27" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cedb6cce-4789-47d7-80e7-084ae43e5aeb" elementFormDefault="qualified">
@@ -19393,6 +19411,11 @@
     <xsd:element name="MediaServiceSearchProperties" ma:index="24" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="25" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -19553,12 +19576,14 @@
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="cedb6cce-4789-47d7-80e7-084ae43e5aeb">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66A5CE63-57FA-4690-9E84-ED168094DB28}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35B225BC-A8A8-4D37-BD8E-BDD272FE0DDD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Reference Files/TREV Cookbook.xlsx
+++ b/Reference Files/TREV Cookbook.xlsx
@@ -19288,8 +19288,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000B04E478543B71439A8B446FAE864F93" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="17c7b3b50280f4f324f9f17e113bd2f3">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cedb6cce-4789-47d7-80e7-084ae43e5aeb" xmlns:ns3="451e9e83-0d82-4a6b-ab34-314dfff0ce35" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd680a837a593db066b77fe3f31b4b85" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000B04E478543B71439A8B446FAE864F93" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ab1d43c324b5e14d8333cd633f6ee0a0">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="cedb6cce-4789-47d7-80e7-084ae43e5aeb" xmlns:ns3="451e9e83-0d82-4a6b-ab34-314dfff0ce35" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bac3fe62d9fb2ad2b67ec932b03bcfea" ns1:_="" ns2:_="" ns3:_="">
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="cedb6cce-4789-47d7-80e7-084ae43e5aeb"/>
     <xsd:import namespace="451e9e83-0d82-4a6b-ab34-314dfff0ce35"/>
     <xsd:element name="properties">
@@ -19314,11 +19315,28 @@
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:_Flow_SignoffStatus" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="26" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="27" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cedb6cce-4789-47d7-80e7-084ae43e5aeb" elementFormDefault="qualified">
@@ -19393,6 +19411,11 @@
     <xsd:element name="MediaServiceSearchProperties" ma:index="24" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="25" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -19553,12 +19576,14 @@
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="cedb6cce-4789-47d7-80e7-084ae43e5aeb">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66A5CE63-57FA-4690-9E84-ED168094DB28}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31047AAB-803C-4479-80E4-70A84481F233}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Reference Files/TREV Cookbook.xlsx
+++ b/Reference Files/TREV Cookbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Terps Racing\_Simulation\Purojekuto (YM) D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Stuff\repos\YMD-Sim\Reference Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9517EC45-C3A0-4A1E-9BD3-4CDBAF0630D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D9DDC7-A952-4D6D-8627-0AF2D6ED6D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="744" firstSheet="1" activeTab="1" xr2:uid="{9242884C-AB33-489A-BB7F-ADCF636164C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="744" xr2:uid="{9242884C-AB33-489A-BB7F-ADCF636164C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="4" r:id="rId1"/>
@@ -2485,7 +2485,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2875,6 +2875,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2954,27 +2972,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9716,9 +9713,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9756,7 +9753,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -9862,7 +9859,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10004,7 +10001,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10014,17 +10011,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732A1F52-7421-492F-8E7E-A61E507D61E5}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>55</v>
       </c>
@@ -10032,7 +10029,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
         <v>56</v>
       </c>
@@ -10046,7 +10043,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
         <v>57</v>
       </c>
@@ -10060,7 +10057,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
         <v>58</v>
       </c>
@@ -10074,7 +10071,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
         <v>59</v>
       </c>
@@ -10091,7 +10088,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="s">
         <v>60</v>
       </c>
@@ -10108,7 +10105,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
         <v>61</v>
       </c>
@@ -10125,7 +10122,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="57" t="s">
         <v>62</v>
       </c>
@@ -10139,7 +10136,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="57" t="s">
         <v>63</v>
       </c>
@@ -10153,7 +10150,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="57" t="s">
         <v>64</v>
       </c>
@@ -10162,7 +10159,7 @@
         <v>31.720000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="s">
         <v>65</v>
       </c>
@@ -10171,7 +10168,7 @@
         <v>29.279999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
         <v>66</v>
       </c>
@@ -10179,7 +10176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="57" t="s">
         <v>67</v>
       </c>
@@ -10187,7 +10184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
         <v>68</v>
       </c>
@@ -10195,7 +10192,7 @@
         <v>1.5833999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="57" t="s">
         <v>69</v>
       </c>
@@ -10203,7 +10200,7 @@
         <v>6.0487000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
         <v>70</v>
       </c>
@@ -10211,7 +10208,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="57" t="s">
         <v>71</v>
       </c>
@@ -10225,7 +10222,7 @@
         <v>-1.7035499999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="57" t="s">
         <v>72</v>
       </c>
@@ -10233,7 +10230,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="57" t="s">
         <v>73</v>
       </c>
@@ -10241,7 +10238,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="57" t="s">
         <v>74</v>
       </c>
@@ -10249,7 +10246,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="57" t="s">
         <v>75</v>
       </c>
@@ -10257,7 +10254,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="57" t="s">
         <v>76</v>
       </c>
@@ -10265,7 +10262,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="57" t="s">
         <v>77</v>
       </c>
@@ -10273,7 +10270,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="57" t="s">
         <v>78</v>
       </c>
@@ -10281,7 +10278,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="57" t="s">
         <v>79</v>
       </c>
@@ -10289,7 +10286,7 @@
         <v>-0.2223</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="57" t="s">
         <v>80</v>
       </c>
@@ -10297,7 +10294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="57" t="s">
         <v>143</v>
       </c>
@@ -10305,7 +10302,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="57" t="s">
         <v>144</v>
       </c>
@@ -10322,26 +10319,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91CFB7DB-8140-4785-B888-3C06C707C0CA}">
   <dimension ref="A1:BQ195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="AQ1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="BN38" sqref="BN38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="46" max="46" width="26.44140625" customWidth="1"/>
-    <col min="48" max="48" width="11.33203125" customWidth="1"/>
-    <col min="49" max="49" width="9.44140625" customWidth="1"/>
-    <col min="52" max="52" width="9.21875" customWidth="1"/>
-    <col min="57" max="57" width="15.33203125" customWidth="1"/>
-    <col min="58" max="58" width="18.21875" customWidth="1"/>
-    <col min="59" max="65" width="10.88671875" customWidth="1"/>
-    <col min="66" max="66" width="9.21875" customWidth="1"/>
-    <col min="67" max="67" width="17.5546875" customWidth="1"/>
+    <col min="46" max="46" width="26.42578125" customWidth="1"/>
+    <col min="48" max="48" width="11.28515625" customWidth="1"/>
+    <col min="49" max="49" width="9.42578125" customWidth="1"/>
+    <col min="52" max="52" width="9.28515625" customWidth="1"/>
+    <col min="57" max="57" width="15.28515625" customWidth="1"/>
+    <col min="58" max="58" width="18.28515625" customWidth="1"/>
+    <col min="59" max="65" width="10.85546875" customWidth="1"/>
+    <col min="66" max="66" width="9.28515625" customWidth="1"/>
+    <col min="67" max="67" width="17.5703125" customWidth="1"/>
     <col min="68" max="68" width="20" customWidth="1"/>
-    <col min="69" max="69" width="10.33203125" customWidth="1"/>
+    <col min="69" max="69" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V1" s="56" t="s">
         <v>142</v>
       </c>
@@ -10358,7 +10355,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V2" s="115" t="s">
         <v>132</v>
       </c>
@@ -10425,7 +10422,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="3" spans="1:69" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:69" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V3" t="s">
         <v>22</v>
       </c>
@@ -10490,7 +10487,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:69" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:69" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AH4" s="56"/>
       <c r="AU4" s="127" t="s">
         <v>190</v>
@@ -10532,7 +10529,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU5" s="129" t="s">
         <v>296</v>
       </c>
@@ -10573,7 +10570,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU6" s="129"/>
       <c r="AV6" s="123" t="s">
         <v>297</v>
@@ -10613,7 +10610,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU7" s="129"/>
       <c r="AV7" s="123" t="s">
         <v>297</v>
@@ -10650,7 +10647,7 @@
         <v>153.5</v>
       </c>
     </row>
-    <row r="8" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU8" s="129"/>
       <c r="AV8" s="123" t="s">
         <v>297</v>
@@ -10690,7 +10687,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="115" t="s">
         <v>132</v>
       </c>
@@ -10736,7 +10733,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU10" s="129"/>
       <c r="AV10" s="123" t="s">
         <v>297</v>
@@ -10773,7 +10770,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU11" s="129"/>
       <c r="AV11" s="123">
         <v>578</v>
@@ -10810,7 +10807,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU12" s="129"/>
       <c r="AV12" s="123" t="s">
         <v>297</v>
@@ -10850,7 +10847,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU13" s="129"/>
       <c r="AV13" s="123" t="s">
         <v>297</v>
@@ -10890,7 +10887,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU14" s="129"/>
       <c r="AV14" s="123" t="s">
         <v>297</v>
@@ -10927,7 +10924,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU15" s="129"/>
       <c r="AV15" s="123" t="s">
         <v>297</v>
@@ -10967,7 +10964,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU16" s="129"/>
       <c r="AV16" s="123">
         <v>500</v>
@@ -11004,7 +11001,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V17" t="s">
         <v>23</v>
       </c>
@@ -11053,7 +11050,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU18" s="129"/>
       <c r="AV18" s="123" t="s">
         <v>297</v>
@@ -11076,7 +11073,7 @@
       </c>
       <c r="BC18" s="155"/>
     </row>
-    <row r="19" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU19" s="129"/>
       <c r="AV19" s="123" t="s">
         <v>297</v>
@@ -11125,7 +11122,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU20" s="129"/>
       <c r="AV20" s="123" t="s">
         <v>297</v>
@@ -11162,7 +11159,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU21" s="129"/>
       <c r="AV21" s="123">
         <v>579</v>
@@ -11201,7 +11198,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="115" t="s">
         <v>133</v>
       </c>
@@ -11247,7 +11244,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU23" s="129"/>
       <c r="AV23" s="123" t="s">
         <v>297</v>
@@ -11284,7 +11281,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU24" s="129"/>
       <c r="AV24" s="123" t="s">
         <v>297</v>
@@ -11324,7 +11321,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU25" s="129"/>
       <c r="AV25" s="123" t="s">
         <v>297</v>
@@ -11364,7 +11361,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU26" s="129"/>
       <c r="AV26" s="123" t="s">
         <v>297</v>
@@ -11401,7 +11398,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU27" s="129"/>
       <c r="AV27" s="123">
         <v>522</v>
@@ -11438,7 +11435,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU28" s="129"/>
       <c r="AV28" s="123" t="s">
         <v>297</v>
@@ -11478,7 +11475,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU29" s="129"/>
       <c r="AV29" s="123" t="s">
         <v>297</v>
@@ -11518,7 +11515,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU30" s="129"/>
       <c r="AV30" s="123" t="s">
         <v>297</v>
@@ -11555,7 +11552,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU31" s="129"/>
       <c r="AV31" s="123" t="s">
         <v>297</v>
@@ -11595,7 +11592,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V32" s="115" t="s">
         <v>133</v>
       </c>
@@ -11644,7 +11641,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V33" t="s">
         <v>22</v>
       </c>
@@ -11693,7 +11690,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU34" s="129"/>
       <c r="AV34" s="123" t="s">
         <v>297</v>
@@ -11716,7 +11713,7 @@
       </c>
       <c r="BC34" s="155"/>
     </row>
-    <row r="35" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="115" t="s">
         <v>134</v>
       </c>
@@ -11771,7 +11768,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU36" s="129"/>
       <c r="AV36" s="123" t="s">
         <v>297</v>
@@ -11808,7 +11805,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU37" s="129"/>
       <c r="AV37" s="123">
         <v>671</v>
@@ -11847,7 +11844,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU38" s="129"/>
       <c r="AV38" s="123" t="s">
         <v>297</v>
@@ -11890,7 +11887,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU39" s="129"/>
       <c r="AV39" s="123" t="s">
         <v>297</v>
@@ -11927,7 +11924,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU40" s="129"/>
       <c r="AV40" s="123" t="s">
         <v>297</v>
@@ -11967,7 +11964,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU41" s="129"/>
       <c r="AV41" s="123" t="s">
         <v>297</v>
@@ -12007,7 +12004,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU42" s="129"/>
       <c r="AV42" s="123" t="s">
         <v>297</v>
@@ -12044,7 +12041,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU43" s="129"/>
       <c r="AV43" s="123">
         <v>613</v>
@@ -12081,7 +12078,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU44" s="129"/>
       <c r="AV44" s="123" t="s">
         <v>297</v>
@@ -12121,7 +12118,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU45" s="129"/>
       <c r="AV45" s="123" t="s">
         <v>297</v>
@@ -12161,7 +12158,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU46" s="129"/>
       <c r="AV46" s="123" t="s">
         <v>297</v>
@@ -12198,7 +12195,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V47" t="s">
         <v>23</v>
       </c>
@@ -12250,7 +12247,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="115" t="s">
         <v>135</v>
       </c>
@@ -12293,7 +12290,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="11:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="11:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU49" s="129"/>
       <c r="AV49" s="123" t="s">
         <v>297</v>
@@ -12330,7 +12327,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="11:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="11:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU50" s="129"/>
       <c r="AV50" s="123" t="s">
         <v>297</v>
@@ -12353,7 +12350,7 @@
       </c>
       <c r="BC50" s="155"/>
     </row>
-    <row r="51" spans="11:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="11:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU51" s="129"/>
       <c r="AV51" s="123" t="s">
         <v>297</v>
@@ -12376,82 +12373,82 @@
       </c>
       <c r="BC51" s="155"/>
     </row>
-    <row r="52" spans="11:69" x14ac:dyDescent="0.3">
-      <c r="AU52" s="185"/>
-      <c r="AV52" s="186" t="s">
+    <row r="52" spans="11:69" x14ac:dyDescent="0.25">
+      <c r="AU52" s="157"/>
+      <c r="AV52" s="158" t="s">
         <v>297</v>
       </c>
-      <c r="AW52" s="186"/>
-      <c r="AX52" s="186">
+      <c r="AW52" s="158"/>
+      <c r="AX52" s="158">
         <v>4</v>
       </c>
-      <c r="AY52" s="186">
+      <c r="AY52" s="158">
         <v>100</v>
       </c>
-      <c r="AZ52" s="186">
+      <c r="AZ52" s="158">
         <v>66</v>
       </c>
-      <c r="BA52" s="186">
+      <c r="BA52" s="158">
         <v>0.66500000000000004</v>
       </c>
-      <c r="BB52" s="187">
+      <c r="BB52" s="159">
         <v>14</v>
       </c>
       <c r="BC52" s="155"/>
     </row>
-    <row r="53" spans="11:69" x14ac:dyDescent="0.3">
-      <c r="AU53" s="184"/>
-      <c r="AV53" s="184"/>
-      <c r="AW53" s="184"/>
-      <c r="AX53" s="184"/>
-      <c r="AY53" s="184"/>
-      <c r="AZ53" s="184"/>
-      <c r="BA53" s="184"/>
-      <c r="BB53" s="184"/>
+    <row r="53" spans="11:69" x14ac:dyDescent="0.25">
+      <c r="AU53" s="155"/>
+      <c r="AV53" s="155"/>
+      <c r="AW53" s="155"/>
+      <c r="AX53" s="155"/>
+      <c r="AY53" s="155"/>
+      <c r="AZ53" s="155"/>
+      <c r="BA53" s="155"/>
+      <c r="BB53" s="155"/>
       <c r="BC53" s="155"/>
     </row>
-    <row r="54" spans="11:69" x14ac:dyDescent="0.3">
-      <c r="AU54" s="184"/>
-      <c r="AV54" s="184"/>
-      <c r="AW54" s="184"/>
-      <c r="AX54" s="184"/>
-      <c r="AY54" s="184"/>
-      <c r="AZ54" s="184"/>
-      <c r="BA54" s="184"/>
-      <c r="BB54" s="184"/>
+    <row r="54" spans="11:69" x14ac:dyDescent="0.25">
+      <c r="AU54" s="155"/>
+      <c r="AV54" s="155"/>
+      <c r="AW54" s="155"/>
+      <c r="AX54" s="155"/>
+      <c r="AY54" s="155"/>
+      <c r="AZ54" s="155"/>
+      <c r="BA54" s="155"/>
+      <c r="BB54" s="155"/>
       <c r="BC54" s="155"/>
     </row>
-    <row r="55" spans="11:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="11:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AT55" t="s">
         <v>302</v>
       </c>
-      <c r="AU55" s="188" t="s">
+      <c r="AU55" s="160" t="s">
         <v>298</v>
       </c>
-      <c r="AV55" s="189">
+      <c r="AV55" s="161">
         <v>499</v>
       </c>
-      <c r="AW55" s="189">
+      <c r="AW55" s="161">
         <v>8</v>
       </c>
-      <c r="AX55" s="189">
+      <c r="AX55" s="161">
         <v>0</v>
       </c>
-      <c r="AY55" s="189">
+      <c r="AY55" s="161">
         <v>250</v>
       </c>
-      <c r="AZ55" s="189">
+      <c r="AZ55" s="161">
         <v>134</v>
       </c>
-      <c r="BA55" s="189">
+      <c r="BA55" s="161">
         <v>0.53800000000000003</v>
       </c>
-      <c r="BB55" s="190">
+      <c r="BB55" s="162">
         <v>9</v>
       </c>
       <c r="BC55" s="155"/>
     </row>
-    <row r="56" spans="11:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="11:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU56" s="129"/>
       <c r="AV56" s="123" t="s">
         <v>297</v>
@@ -12474,7 +12471,7 @@
       </c>
       <c r="BC56" s="155"/>
     </row>
-    <row r="57" spans="11:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="11:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU57" s="129"/>
       <c r="AV57" s="123" t="s">
         <v>297</v>
@@ -12497,7 +12494,7 @@
       </c>
       <c r="BC57" s="155"/>
     </row>
-    <row r="58" spans="11:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="11:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU58" s="129"/>
       <c r="AV58" s="123" t="s">
         <v>297</v>
@@ -12520,7 +12517,7 @@
       </c>
       <c r="BC58" s="155"/>
     </row>
-    <row r="59" spans="11:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="11:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU59" s="129"/>
       <c r="AV59" s="123" t="s">
         <v>297</v>
@@ -12543,7 +12540,7 @@
       </c>
       <c r="BC59" s="155"/>
     </row>
-    <row r="60" spans="11:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="11:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU60" s="129"/>
       <c r="AV60" s="123" t="s">
         <v>297</v>
@@ -12566,7 +12563,7 @@
       </c>
       <c r="BC60" s="155"/>
     </row>
-    <row r="61" spans="11:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="11:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K61" s="115" t="s">
         <v>140</v>
       </c>
@@ -12592,7 +12589,7 @@
       </c>
       <c r="BC61" s="155"/>
     </row>
-    <row r="62" spans="11:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="11:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU62" s="129"/>
       <c r="AV62" s="123" t="s">
         <v>297</v>
@@ -12615,7 +12612,7 @@
       </c>
       <c r="BC62" s="155"/>
     </row>
-    <row r="63" spans="11:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="11:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU63" s="129"/>
       <c r="AV63" s="123" t="s">
         <v>297</v>
@@ -12638,7 +12635,7 @@
       </c>
       <c r="BC63" s="155"/>
     </row>
-    <row r="64" spans="11:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="11:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU64" s="129"/>
       <c r="AV64" s="123" t="s">
         <v>297</v>
@@ -12661,7 +12658,7 @@
       </c>
       <c r="BC64" s="155"/>
     </row>
-    <row r="65" spans="11:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="11:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU65" s="129"/>
       <c r="AV65" s="123" t="s">
         <v>297</v>
@@ -12684,7 +12681,7 @@
       </c>
       <c r="BC65" s="155"/>
     </row>
-    <row r="66" spans="11:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="11:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU66" s="129"/>
       <c r="AV66" s="123">
         <v>399</v>
@@ -12707,7 +12704,7 @@
       </c>
       <c r="BC66" s="155"/>
     </row>
-    <row r="67" spans="11:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="11:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU67" s="129"/>
       <c r="AV67" s="123" t="s">
         <v>297</v>
@@ -12730,7 +12727,7 @@
       </c>
       <c r="BC67" s="155"/>
     </row>
-    <row r="68" spans="11:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="11:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU68" s="129"/>
       <c r="AV68" s="123" t="s">
         <v>297</v>
@@ -12753,7 +12750,7 @@
       </c>
       <c r="BC68" s="155"/>
     </row>
-    <row r="69" spans="11:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="11:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU69" s="129"/>
       <c r="AV69" s="123" t="s">
         <v>297</v>
@@ -12776,7 +12773,7 @@
       </c>
       <c r="BC69" s="155"/>
     </row>
-    <row r="70" spans="11:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="11:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU70" s="129"/>
       <c r="AV70" s="123" t="s">
         <v>297</v>
@@ -12799,7 +12796,7 @@
       </c>
       <c r="BC70" s="155"/>
     </row>
-    <row r="71" spans="11:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="11:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU71" s="129"/>
       <c r="AV71" s="123">
         <v>617</v>
@@ -12824,7 +12821,7 @@
       </c>
       <c r="BC71" s="155"/>
     </row>
-    <row r="72" spans="11:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="11:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU72" s="129"/>
       <c r="AV72" s="123" t="s">
         <v>297</v>
@@ -12847,7 +12844,7 @@
       </c>
       <c r="BC72" s="155"/>
     </row>
-    <row r="73" spans="11:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="11:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU73" s="129"/>
       <c r="AV73" s="123" t="s">
         <v>297</v>
@@ -12870,7 +12867,7 @@
       </c>
       <c r="BC73" s="155"/>
     </row>
-    <row r="74" spans="11:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="11:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K74" s="115" t="s">
         <v>141</v>
       </c>
@@ -12896,7 +12893,7 @@
       </c>
       <c r="BC74" s="155"/>
     </row>
-    <row r="75" spans="11:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="11:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU75" s="129"/>
       <c r="AV75" s="123" t="s">
         <v>297</v>
@@ -12919,7 +12916,7 @@
       </c>
       <c r="BC75" s="155"/>
     </row>
-    <row r="76" spans="11:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="11:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU76" s="129"/>
       <c r="AV76" s="123" t="s">
         <v>297</v>
@@ -12942,7 +12939,7 @@
       </c>
       <c r="BC76" s="155"/>
     </row>
-    <row r="77" spans="11:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="11:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU77" s="129"/>
       <c r="AV77" s="123">
         <v>570</v>
@@ -12965,7 +12962,7 @@
       </c>
       <c r="BC77" s="155"/>
     </row>
-    <row r="78" spans="11:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="11:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU78" s="129"/>
       <c r="AV78" s="123" t="s">
         <v>297</v>
@@ -12988,7 +12985,7 @@
       </c>
       <c r="BC78" s="155"/>
     </row>
-    <row r="79" spans="11:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="11:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU79" s="129"/>
       <c r="AV79" s="123" t="s">
         <v>297</v>
@@ -13011,7 +13008,7 @@
       </c>
       <c r="BC79" s="155"/>
     </row>
-    <row r="80" spans="11:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="11:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU80" s="129"/>
       <c r="AV80" s="123" t="s">
         <v>297</v>
@@ -13034,7 +13031,7 @@
       </c>
       <c r="BC80" s="155"/>
     </row>
-    <row r="81" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU81" s="129"/>
       <c r="AV81" s="123" t="s">
         <v>297</v>
@@ -13057,7 +13054,7 @@
       </c>
       <c r="BC81" s="155"/>
     </row>
-    <row r="82" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU82" s="129"/>
       <c r="AV82" s="123">
         <v>490</v>
@@ -13080,7 +13077,7 @@
       </c>
       <c r="BC82" s="155"/>
     </row>
-    <row r="83" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU83" s="129"/>
       <c r="AV83" s="123" t="s">
         <v>297</v>
@@ -13103,7 +13100,7 @@
       </c>
       <c r="BC83" s="155"/>
     </row>
-    <row r="84" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU84" s="129"/>
       <c r="AV84" s="123" t="s">
         <v>297</v>
@@ -13126,7 +13123,7 @@
       </c>
       <c r="BC84" s="155"/>
     </row>
-    <row r="85" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU85" s="129"/>
       <c r="AV85" s="123" t="s">
         <v>297</v>
@@ -13149,7 +13146,7 @@
       </c>
       <c r="BC85" s="155"/>
     </row>
-    <row r="86" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU86" s="129"/>
       <c r="AV86" s="123" t="s">
         <v>297</v>
@@ -13172,7 +13169,7 @@
       </c>
       <c r="BC86" s="155"/>
     </row>
-    <row r="87" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>168</v>
       </c>
@@ -13198,7 +13195,7 @@
       </c>
       <c r="BC87" s="155"/>
     </row>
-    <row r="88" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>169</v>
       </c>
@@ -13224,7 +13221,7 @@
       </c>
       <c r="BC88" s="155"/>
     </row>
-    <row r="89" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU89" s="129"/>
       <c r="AV89" s="123" t="s">
         <v>297</v>
@@ -13247,7 +13244,7 @@
       </c>
       <c r="BC89" s="155"/>
     </row>
-    <row r="90" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU90" s="129"/>
       <c r="AV90" s="123" t="s">
         <v>297</v>
@@ -13270,7 +13267,7 @@
       </c>
       <c r="BC90" s="155"/>
     </row>
-    <row r="91" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU91" s="129"/>
       <c r="AV91" s="123" t="s">
         <v>297</v>
@@ -13293,7 +13290,7 @@
       </c>
       <c r="BC91" s="155"/>
     </row>
-    <row r="92" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU92" s="129"/>
       <c r="AV92" s="123" t="s">
         <v>297</v>
@@ -13316,7 +13313,7 @@
       </c>
       <c r="BC92" s="155"/>
     </row>
-    <row r="93" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU93" s="129"/>
       <c r="AV93" s="123" t="s">
         <v>297</v>
@@ -13339,7 +13336,7 @@
       </c>
       <c r="BC93" s="155"/>
     </row>
-    <row r="94" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU94" s="129"/>
       <c r="AV94" s="123" t="s">
         <v>297</v>
@@ -13362,7 +13359,7 @@
       </c>
       <c r="BC94" s="155"/>
     </row>
-    <row r="95" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU95" s="129"/>
       <c r="AV95" s="123" t="s">
         <v>297</v>
@@ -13385,7 +13382,7 @@
       </c>
       <c r="BC95" s="155"/>
     </row>
-    <row r="96" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU96" s="129"/>
       <c r="AV96" s="123" t="s">
         <v>297</v>
@@ -13408,21 +13405,21 @@
       </c>
       <c r="BC96" s="155"/>
     </row>
-    <row r="97" spans="47:55" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="47:55" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AU97" s="132"/>
       <c r="BC97" s="155"/>
     </row>
-    <row r="98" spans="47:55" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="47:55" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AU98" s="132"/>
       <c r="BC98" s="155"/>
     </row>
-    <row r="99" spans="47:55" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="47:55" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AU99" s="153" t="s">
         <v>289</v>
       </c>
       <c r="BC99" s="155"/>
     </row>
-    <row r="100" spans="47:55" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="47:55" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU100" s="135" t="s">
         <v>219</v>
       </c>
@@ -13434,7 +13431,7 @@
       <c r="AY100" s="138"/>
       <c r="BC100" s="155"/>
     </row>
-    <row r="101" spans="47:55" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="47:55" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU101" s="139" t="s">
         <v>220</v>
       </c>
@@ -13452,7 +13449,7 @@
       </c>
       <c r="BC101" s="155"/>
     </row>
-    <row r="102" spans="47:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="47:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU102" s="141" t="s">
         <v>225</v>
       </c>
@@ -13470,7 +13467,7 @@
       </c>
       <c r="BC102" s="155"/>
     </row>
-    <row r="103" spans="47:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="47:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU103" s="141" t="s">
         <v>209</v>
       </c>
@@ -13488,7 +13485,7 @@
       </c>
       <c r="BC103" s="155"/>
     </row>
-    <row r="104" spans="47:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="47:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU104" s="141" t="s">
         <v>218</v>
       </c>
@@ -13506,7 +13503,7 @@
       </c>
       <c r="BC104" s="155"/>
     </row>
-    <row r="105" spans="47:55" x14ac:dyDescent="0.3">
+    <row r="105" spans="47:55" x14ac:dyDescent="0.25">
       <c r="AU105" s="143" t="s">
         <v>229</v>
       </c>
@@ -13524,25 +13521,25 @@
       </c>
       <c r="BC105" s="155"/>
     </row>
-    <row r="106" spans="47:55" ht="21" x14ac:dyDescent="0.3">
+    <row r="106" spans="47:55" ht="21" x14ac:dyDescent="0.25">
       <c r="AU106" s="146"/>
       <c r="BC106" s="155"/>
     </row>
-    <row r="107" spans="47:55" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="47:55" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AU107" s="153" t="s">
         <v>288</v>
       </c>
       <c r="BC107" s="155"/>
     </row>
-    <row r="108" spans="47:55" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="47:55" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AU108" s="132"/>
       <c r="BC108" s="155"/>
     </row>
-    <row r="109" spans="47:55" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="AU109" s="157" t="s">
+    <row r="109" spans="47:55" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="AU109" s="163" t="s">
         <v>182</v>
       </c>
-      <c r="AV109" s="160" t="s">
+      <c r="AV109" s="166" t="s">
         <v>231</v>
       </c>
       <c r="AW109" s="149" t="s">
@@ -13559,9 +13556,9 @@
       </c>
       <c r="BC109" s="155"/>
     </row>
-    <row r="110" spans="47:55" x14ac:dyDescent="0.3">
-      <c r="AU110" s="158"/>
-      <c r="AV110" s="161"/>
+    <row r="110" spans="47:55" x14ac:dyDescent="0.25">
+      <c r="AU110" s="164"/>
+      <c r="AV110" s="167"/>
       <c r="AW110" s="147" t="s">
         <v>194</v>
       </c>
@@ -13576,16 +13573,16 @@
       </c>
       <c r="BC110" s="155"/>
     </row>
-    <row r="111" spans="47:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AU111" s="159"/>
-      <c r="AV111" s="162"/>
+    <row r="111" spans="47:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU111" s="165"/>
+      <c r="AV111" s="168"/>
       <c r="AW111" s="148"/>
       <c r="AX111" s="148"/>
       <c r="AY111" s="148"/>
       <c r="AZ111" s="152"/>
       <c r="BC111" s="155"/>
     </row>
-    <row r="112" spans="47:55" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="47:55" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU112" s="141" t="s">
         <v>208</v>
       </c>
@@ -13606,7 +13603,7 @@
       </c>
       <c r="BC112" s="155"/>
     </row>
-    <row r="113" spans="47:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="47:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU113" s="141" t="s">
         <v>200</v>
       </c>
@@ -13627,7 +13624,7 @@
       </c>
       <c r="BC113" s="155"/>
     </row>
-    <row r="114" spans="47:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="47:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU114" s="141" t="s">
         <v>200</v>
       </c>
@@ -13648,7 +13645,7 @@
       </c>
       <c r="BC114" s="155"/>
     </row>
-    <row r="115" spans="47:55" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="47:55" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU115" s="141" t="s">
         <v>200</v>
       </c>
@@ -13669,7 +13666,7 @@
       </c>
       <c r="BC115" s="155"/>
     </row>
-    <row r="116" spans="47:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="47:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU116" s="141" t="s">
         <v>200</v>
       </c>
@@ -13690,7 +13687,7 @@
       </c>
       <c r="BC116" s="155"/>
     </row>
-    <row r="117" spans="47:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="47:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU117" s="141" t="s">
         <v>200</v>
       </c>
@@ -13711,7 +13708,7 @@
       </c>
       <c r="BC117" s="155"/>
     </row>
-    <row r="118" spans="47:55" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="47:55" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU118" s="141" t="s">
         <v>225</v>
       </c>
@@ -13732,7 +13729,7 @@
       </c>
       <c r="BC118" s="155"/>
     </row>
-    <row r="119" spans="47:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="47:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU119" s="141" t="s">
         <v>200</v>
       </c>
@@ -13753,7 +13750,7 @@
       </c>
       <c r="BC119" s="155"/>
     </row>
-    <row r="120" spans="47:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="47:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU120" s="141" t="s">
         <v>200</v>
       </c>
@@ -13774,7 +13771,7 @@
       </c>
       <c r="BC120" s="155"/>
     </row>
-    <row r="121" spans="47:55" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="47:55" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU121" s="141" t="s">
         <v>200</v>
       </c>
@@ -13795,7 +13792,7 @@
       </c>
       <c r="BC121" s="155"/>
     </row>
-    <row r="122" spans="47:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="47:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU122" s="141" t="s">
         <v>200</v>
       </c>
@@ -13816,7 +13813,7 @@
       </c>
       <c r="BC122" s="155"/>
     </row>
-    <row r="123" spans="47:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="47:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU123" s="141" t="s">
         <v>200</v>
       </c>
@@ -13837,7 +13834,7 @@
       </c>
       <c r="BC123" s="155"/>
     </row>
-    <row r="124" spans="47:55" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="47:55" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU124" s="141" t="s">
         <v>200</v>
       </c>
@@ -13858,7 +13855,7 @@
       </c>
       <c r="BC124" s="155"/>
     </row>
-    <row r="125" spans="47:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="47:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU125" s="141" t="s">
         <v>200</v>
       </c>
@@ -13879,7 +13876,7 @@
       </c>
       <c r="BC125" s="155"/>
     </row>
-    <row r="126" spans="47:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="47:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU126" s="141" t="s">
         <v>200</v>
       </c>
@@ -13900,7 +13897,7 @@
       </c>
       <c r="BC126" s="155"/>
     </row>
-    <row r="127" spans="47:55" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="47:55" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU127" s="141" t="s">
         <v>200</v>
       </c>
@@ -13921,7 +13918,7 @@
       </c>
       <c r="BC127" s="155"/>
     </row>
-    <row r="128" spans="47:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="47:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU128" s="141" t="s">
         <v>200</v>
       </c>
@@ -13942,7 +13939,7 @@
       </c>
       <c r="BC128" s="155"/>
     </row>
-    <row r="129" spans="47:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="47:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU129" s="141" t="s">
         <v>200</v>
       </c>
@@ -13963,7 +13960,7 @@
       </c>
       <c r="BC129" s="155"/>
     </row>
-    <row r="130" spans="47:55" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="47:55" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU130" s="141" t="s">
         <v>214</v>
       </c>
@@ -13984,7 +13981,7 @@
       </c>
       <c r="BC130" s="155"/>
     </row>
-    <row r="131" spans="47:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="47:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU131" s="141" t="s">
         <v>200</v>
       </c>
@@ -14005,7 +14002,7 @@
       </c>
       <c r="BC131" s="155"/>
     </row>
-    <row r="132" spans="47:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="47:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU132" s="141" t="s">
         <v>200</v>
       </c>
@@ -14026,7 +14023,7 @@
       </c>
       <c r="BC132" s="155"/>
     </row>
-    <row r="133" spans="47:55" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="47:55" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU133" s="141" t="s">
         <v>200</v>
       </c>
@@ -14047,7 +14044,7 @@
       </c>
       <c r="BC133" s="155"/>
     </row>
-    <row r="134" spans="47:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="47:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU134" s="141" t="s">
         <v>200</v>
       </c>
@@ -14068,7 +14065,7 @@
       </c>
       <c r="BC134" s="155"/>
     </row>
-    <row r="135" spans="47:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="47:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU135" s="141" t="s">
         <v>200</v>
       </c>
@@ -14089,7 +14086,7 @@
       </c>
       <c r="BC135" s="155"/>
     </row>
-    <row r="136" spans="47:55" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="47:55" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU136" s="141" t="s">
         <v>213</v>
       </c>
@@ -14110,7 +14107,7 @@
       </c>
       <c r="BC136" s="155"/>
     </row>
-    <row r="137" spans="47:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="47:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU137" s="141" t="s">
         <v>200</v>
       </c>
@@ -14131,7 +14128,7 @@
       </c>
       <c r="BC137" s="155"/>
     </row>
-    <row r="138" spans="47:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="47:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU138" s="141" t="s">
         <v>200</v>
       </c>
@@ -14152,7 +14149,7 @@
       </c>
       <c r="BC138" s="155"/>
     </row>
-    <row r="139" spans="47:55" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="47:55" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU139" s="141" t="s">
         <v>200</v>
       </c>
@@ -14173,7 +14170,7 @@
       </c>
       <c r="BC139" s="155"/>
     </row>
-    <row r="140" spans="47:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="47:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU140" s="141" t="s">
         <v>200</v>
       </c>
@@ -14194,7 +14191,7 @@
       </c>
       <c r="BC140" s="155"/>
     </row>
-    <row r="141" spans="47:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="47:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU141" s="141" t="s">
         <v>200</v>
       </c>
@@ -14215,7 +14212,7 @@
       </c>
       <c r="BC141" s="155"/>
     </row>
-    <row r="142" spans="47:55" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="47:55" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU142" s="141" t="s">
         <v>209</v>
       </c>
@@ -14236,7 +14233,7 @@
       </c>
       <c r="BC142" s="155"/>
     </row>
-    <row r="143" spans="47:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="47:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU143" s="141" t="s">
         <v>200</v>
       </c>
@@ -14257,7 +14254,7 @@
       </c>
       <c r="BC143" s="155"/>
     </row>
-    <row r="144" spans="47:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="47:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU144" s="141" t="s">
         <v>200</v>
       </c>
@@ -14278,7 +14275,7 @@
       </c>
       <c r="BC144" s="155"/>
     </row>
-    <row r="145" spans="47:55" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="47:55" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU145" s="141" t="s">
         <v>200</v>
       </c>
@@ -14299,7 +14296,7 @@
       </c>
       <c r="BC145" s="155"/>
     </row>
-    <row r="146" spans="47:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="47:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU146" s="141" t="s">
         <v>200</v>
       </c>
@@ -14320,7 +14317,7 @@
       </c>
       <c r="BC146" s="155"/>
     </row>
-    <row r="147" spans="47:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="47:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU147" s="141" t="s">
         <v>200</v>
       </c>
@@ -14341,7 +14338,7 @@
       </c>
       <c r="BC147" s="155"/>
     </row>
-    <row r="148" spans="47:55" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="47:55" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU148" s="141" t="s">
         <v>200</v>
       </c>
@@ -14362,7 +14359,7 @@
       </c>
       <c r="BC148" s="155"/>
     </row>
-    <row r="149" spans="47:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="47:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU149" s="141" t="s">
         <v>200</v>
       </c>
@@ -14383,7 +14380,7 @@
       </c>
       <c r="BC149" s="155"/>
     </row>
-    <row r="150" spans="47:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="47:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU150" s="141" t="s">
         <v>200</v>
       </c>
@@ -14404,7 +14401,7 @@
       </c>
       <c r="BC150" s="155"/>
     </row>
-    <row r="151" spans="47:55" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="47:55" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU151" s="141" t="s">
         <v>200</v>
       </c>
@@ -14425,7 +14422,7 @@
       </c>
       <c r="BC151" s="155"/>
     </row>
-    <row r="152" spans="47:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="47:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU152" s="141" t="s">
         <v>200</v>
       </c>
@@ -14446,7 +14443,7 @@
       </c>
       <c r="BC152" s="155"/>
     </row>
-    <row r="153" spans="47:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="47:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU153" s="141" t="s">
         <v>200</v>
       </c>
@@ -14467,7 +14464,7 @@
       </c>
       <c r="BC153" s="155"/>
     </row>
-    <row r="154" spans="47:55" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="47:55" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU154" s="141" t="s">
         <v>240</v>
       </c>
@@ -14488,7 +14485,7 @@
       </c>
       <c r="BC154" s="155"/>
     </row>
-    <row r="155" spans="47:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="47:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU155" s="141" t="s">
         <v>200</v>
       </c>
@@ -14509,7 +14506,7 @@
       </c>
       <c r="BC155" s="155"/>
     </row>
-    <row r="156" spans="47:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="47:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU156" s="141" t="s">
         <v>200</v>
       </c>
@@ -14530,7 +14527,7 @@
       </c>
       <c r="BC156" s="155"/>
     </row>
-    <row r="157" spans="47:55" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="47:55" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU157" s="141" t="s">
         <v>200</v>
       </c>
@@ -14551,7 +14548,7 @@
       </c>
       <c r="BC157" s="155"/>
     </row>
-    <row r="158" spans="47:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="47:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU158" s="141" t="s">
         <v>200</v>
       </c>
@@ -14572,7 +14569,7 @@
       </c>
       <c r="BC158" s="155"/>
     </row>
-    <row r="159" spans="47:55" x14ac:dyDescent="0.3">
+    <row r="159" spans="47:55" x14ac:dyDescent="0.25">
       <c r="AU159" s="143" t="s">
         <v>200</v>
       </c>
@@ -14593,84 +14590,84 @@
       </c>
       <c r="BC159" s="155"/>
     </row>
-    <row r="160" spans="47:55" x14ac:dyDescent="0.3">
+    <row r="160" spans="47:55" x14ac:dyDescent="0.25">
       <c r="BC160" s="155"/>
     </row>
-    <row r="161" spans="55:55" x14ac:dyDescent="0.3">
+    <row r="161" spans="55:55" x14ac:dyDescent="0.25">
       <c r="BC161" s="155"/>
     </row>
-    <row r="162" spans="55:55" x14ac:dyDescent="0.3">
+    <row r="162" spans="55:55" x14ac:dyDescent="0.25">
       <c r="BC162" s="155"/>
     </row>
-    <row r="163" spans="55:55" x14ac:dyDescent="0.3">
+    <row r="163" spans="55:55" x14ac:dyDescent="0.25">
       <c r="BC163" s="155"/>
     </row>
-    <row r="164" spans="55:55" x14ac:dyDescent="0.3">
+    <row r="164" spans="55:55" x14ac:dyDescent="0.25">
       <c r="BC164" s="155"/>
     </row>
-    <row r="165" spans="55:55" x14ac:dyDescent="0.3">
+    <row r="165" spans="55:55" x14ac:dyDescent="0.25">
       <c r="BC165" s="155"/>
     </row>
-    <row r="166" spans="55:55" x14ac:dyDescent="0.3">
+    <row r="166" spans="55:55" x14ac:dyDescent="0.25">
       <c r="BC166" s="155"/>
     </row>
-    <row r="167" spans="55:55" x14ac:dyDescent="0.3">
+    <row r="167" spans="55:55" x14ac:dyDescent="0.25">
       <c r="BC167" s="155"/>
     </row>
-    <row r="168" spans="55:55" x14ac:dyDescent="0.3">
+    <row r="168" spans="55:55" x14ac:dyDescent="0.25">
       <c r="BC168" s="155"/>
     </row>
-    <row r="169" spans="55:55" x14ac:dyDescent="0.3">
+    <row r="169" spans="55:55" x14ac:dyDescent="0.25">
       <c r="BC169" s="155"/>
     </row>
-    <row r="170" spans="55:55" x14ac:dyDescent="0.3">
+    <row r="170" spans="55:55" x14ac:dyDescent="0.25">
       <c r="BC170" s="155"/>
     </row>
-    <row r="171" spans="55:55" x14ac:dyDescent="0.3">
+    <row r="171" spans="55:55" x14ac:dyDescent="0.25">
       <c r="BC171" s="155"/>
     </row>
-    <row r="172" spans="55:55" x14ac:dyDescent="0.3">
+    <row r="172" spans="55:55" x14ac:dyDescent="0.25">
       <c r="BC172" s="155"/>
     </row>
-    <row r="173" spans="55:55" x14ac:dyDescent="0.3">
+    <row r="173" spans="55:55" x14ac:dyDescent="0.25">
       <c r="BC173" s="155"/>
     </row>
-    <row r="174" spans="55:55" x14ac:dyDescent="0.3">
+    <row r="174" spans="55:55" x14ac:dyDescent="0.25">
       <c r="BC174" s="155"/>
     </row>
-    <row r="175" spans="55:55" x14ac:dyDescent="0.3">
+    <row r="175" spans="55:55" x14ac:dyDescent="0.25">
       <c r="BC175" s="155"/>
     </row>
-    <row r="176" spans="55:55" x14ac:dyDescent="0.3">
+    <row r="176" spans="55:55" x14ac:dyDescent="0.25">
       <c r="BC176" s="155"/>
     </row>
-    <row r="177" spans="55:55" x14ac:dyDescent="0.3">
+    <row r="177" spans="55:55" x14ac:dyDescent="0.25">
       <c r="BC177" s="155"/>
     </row>
-    <row r="178" spans="55:55" x14ac:dyDescent="0.3">
+    <row r="178" spans="55:55" x14ac:dyDescent="0.25">
       <c r="BC178" s="155"/>
     </row>
-    <row r="179" spans="55:55" x14ac:dyDescent="0.3">
+    <row r="179" spans="55:55" x14ac:dyDescent="0.25">
       <c r="BC179" s="155"/>
     </row>
-    <row r="180" spans="55:55" x14ac:dyDescent="0.3">
+    <row r="180" spans="55:55" x14ac:dyDescent="0.25">
       <c r="BC180" s="155"/>
     </row>
-    <row r="181" spans="55:55" x14ac:dyDescent="0.3">
+    <row r="181" spans="55:55" x14ac:dyDescent="0.25">
       <c r="BC181" s="155"/>
     </row>
-    <row r="182" spans="55:55" x14ac:dyDescent="0.3">
+    <row r="182" spans="55:55" x14ac:dyDescent="0.25">
       <c r="BC182" s="155"/>
     </row>
-    <row r="183" spans="55:55" x14ac:dyDescent="0.3">
+    <row r="183" spans="55:55" x14ac:dyDescent="0.25">
       <c r="BC183" s="155"/>
     </row>
-    <row r="184" spans="55:55" x14ac:dyDescent="0.3">
+    <row r="184" spans="55:55" x14ac:dyDescent="0.25">
       <c r="BC184" s="155"/>
     </row>
-    <row r="187" spans="55:55" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" spans="55:55" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="AU109:AU111"/>
@@ -14690,13 +14687,13 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.77734375" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="4" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>81</v>
       </c>
@@ -14719,7 +14716,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -14745,7 +14742,7 @@
         <v>5.1893700787401578</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -14771,7 +14768,7 @@
         <v>5.7889763779527561</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -14797,7 +14794,7 @@
         <v>5.6244094488188985</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -14823,7 +14820,7 @@
         <v>10.627559055118111</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -14849,7 +14846,7 @@
         <v>11.246062992125985</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -14875,7 +14872,7 @@
         <v>12.481496062992125</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -14901,7 +14898,7 @@
         <v>11.593681102362204</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -14927,7 +14924,7 @@
         <v>5.5321299212598429</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -14953,7 +14950,7 @@
         <v>6.6972440944881901</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -14979,7 +14976,7 @@
         <v>6.3157480314960619</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>98</v>
       </c>
@@ -15005,7 +15002,7 @@
         <v>13.948598425196851</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>99</v>
       </c>
@@ -15031,7 +15028,7 @@
         <v>6.8648740157480317</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -15057,7 +15054,7 @@
         <v>9.15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -15083,7 +15080,7 @@
         <v>9.15</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>102</v>
       </c>
@@ -15109,7 +15106,7 @@
         <v>5.5769251968503939</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>103</v>
       </c>
@@ -15135,7 +15132,7 @@
         <v>5.4832125984251965</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -15161,7 +15158,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="59" t="s">
         <v>105</v>
       </c>
@@ -15184,7 +15181,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>88</v>
       </c>
@@ -15210,7 +15207,7 @@
         <v>6.0318897637795272</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>89</v>
       </c>
@@ -15236,7 +15233,7 @@
         <v>5.1295275590551181</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>90</v>
       </c>
@@ -15262,7 +15259,7 @@
         <v>5.3086614173228348</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -15288,7 +15285,7 @@
         <v>11.346456692913385</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>92</v>
       </c>
@@ -15314,7 +15311,7 @@
         <v>10.491732283464568</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -15340,7 +15337,7 @@
         <v>12.914960629921259</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>94</v>
       </c>
@@ -15366,7 +15363,7 @@
         <v>6.0110236220472446</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>95</v>
       </c>
@@ -15392,7 +15389,7 @@
         <v>14.114566929133858</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>96</v>
       </c>
@@ -15418,7 +15415,7 @@
         <v>12.816929133858268</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>97</v>
       </c>
@@ -15444,7 +15441,7 @@
         <v>10.412992125984253</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>98</v>
       </c>
@@ -15470,7 +15467,7 @@
         <v>14.396850393700788</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>99</v>
       </c>
@@ -15496,7 +15493,7 @@
         <v>14.190944881889763</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>100</v>
       </c>
@@ -15522,7 +15519,7 @@
         <v>9.15</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>101</v>
       </c>
@@ -15548,7 +15545,7 @@
         <v>9.15</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>102</v>
       </c>
@@ -15574,7 +15571,7 @@
         <v>11.469291338582678</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -15600,7 +15597,7 @@
         <v>11.53503937007874</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="63" t="s">
         <v>104</v>
       </c>
@@ -15626,7 +15623,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>131</v>
       </c>
@@ -15644,18 +15641,18 @@
       <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" customWidth="1"/>
-    <col min="8" max="8" width="27.5546875" customWidth="1"/>
-    <col min="9" max="9" width="5.33203125" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" customWidth="1"/>
-    <col min="19" max="19" width="8.77734375" customWidth="1"/>
-    <col min="20" max="20" width="9.77734375" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" customWidth="1"/>
+    <col min="20" max="20" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
@@ -15676,8 +15673,8 @@
       <c r="P1" s="88"/>
       <c r="Q1" s="88"/>
     </row>
-    <row r="2" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="165" t="s">
+    <row r="2" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="171" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="87"/>
@@ -15689,7 +15686,7 @@
         <v>113</v>
       </c>
       <c r="F2" s="72"/>
-      <c r="H2" s="165" t="s">
+      <c r="H2" s="171" t="s">
         <v>120</v>
       </c>
       <c r="I2" s="87"/>
@@ -15706,8 +15703,8 @@
       <c r="P2" s="68"/>
       <c r="Q2" s="68"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="166"/>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="172"/>
       <c r="B3" s="68"/>
       <c r="C3" s="74" t="s">
         <v>114</v>
@@ -15721,7 +15718,7 @@
       <c r="F3" s="75">
         <v>0</v>
       </c>
-      <c r="H3" s="166"/>
+      <c r="H3" s="172"/>
       <c r="I3" s="68"/>
       <c r="J3" s="74" t="s">
         <v>114</v>
@@ -15740,7 +15737,7 @@
       <c r="P3" s="68"/>
       <c r="Q3" s="68"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C4" s="74" t="s">
         <v>115</v>
       </c>
@@ -15766,7 +15763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C5" s="74" t="s">
         <v>116</v>
       </c>
@@ -15794,7 +15791,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="76"/>
@@ -15808,7 +15805,7 @@
       <c r="L6" s="78"/>
       <c r="M6" s="79"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="80" t="s">
@@ -15830,7 +15827,7 @@
       </c>
       <c r="M7" s="81"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="74" t="s">
@@ -15860,7 +15857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="74" t="s">
@@ -15890,7 +15887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="83" t="s">
@@ -15922,7 +15919,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -15930,8 +15927,8 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="163" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="169" t="s">
         <v>109</v>
       </c>
       <c r="B12" s="87"/>
@@ -15948,8 +15945,8 @@
       <c r="J12" s="56"/>
       <c r="L12" s="56"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="164"/>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="170"/>
       <c r="B13" s="68"/>
       <c r="C13" s="74" t="s">
         <v>114</v>
@@ -15966,7 +15963,7 @@
       <c r="H13" s="89"/>
       <c r="I13" s="68"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C14" s="74" t="s">
         <v>115</v>
       </c>
@@ -15980,7 +15977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C15" s="74" t="s">
         <v>116</v>
       </c>
@@ -15994,7 +15991,7 @@
         <v>72.019670000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="76"/>
@@ -16004,7 +16001,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="80" t="s">
@@ -16020,7 +16017,7 @@
       <c r="J17" s="56"/>
       <c r="L17" s="56"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="74" t="s">
@@ -16038,7 +16035,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="74" t="s">
@@ -16056,7 +16053,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="83" t="s">
@@ -16074,8 +16071,8 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="163" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="169" t="s">
         <v>110</v>
       </c>
       <c r="B22" s="87"/>
@@ -16092,8 +16089,8 @@
       <c r="J22" s="56"/>
       <c r="L22" s="56"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="164"/>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="170"/>
       <c r="B23" s="68"/>
       <c r="C23" s="74" t="s">
         <v>114</v>
@@ -16110,7 +16107,7 @@
       <c r="H23" s="89"/>
       <c r="I23" s="68"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>119</v>
       </c>
@@ -16127,7 +16124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C25" s="74" t="s">
         <v>116</v>
       </c>
@@ -16141,7 +16138,7 @@
         <v>255.67670000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="76"/>
@@ -16151,7 +16148,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="80" t="s">
@@ -16167,7 +16164,7 @@
       <c r="J27" s="56"/>
       <c r="L27" s="56"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="74" t="s">
@@ -16185,7 +16182,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="74" t="s">
@@ -16203,7 +16200,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="83" t="s">
@@ -16221,8 +16218,8 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="32" spans="1:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="163" t="s">
+    <row r="32" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="169" t="s">
         <v>111</v>
       </c>
       <c r="B32" s="87"/>
@@ -16234,7 +16231,7 @@
         <v>113</v>
       </c>
       <c r="F32" s="72"/>
-      <c r="H32" s="165" t="s">
+      <c r="H32" s="171" t="s">
         <v>54</v>
       </c>
       <c r="I32" s="87"/>
@@ -16247,8 +16244,8 @@
       </c>
       <c r="M32" s="72"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="164"/>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="170"/>
       <c r="B33" s="68"/>
       <c r="C33" s="74" t="s">
         <v>114</v>
@@ -16262,7 +16259,7 @@
       <c r="F33" s="75">
         <v>0</v>
       </c>
-      <c r="H33" s="166"/>
+      <c r="H33" s="172"/>
       <c r="I33" s="68"/>
       <c r="J33" s="74" t="s">
         <v>114</v>
@@ -16277,7 +16274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>179</v>
       </c>
@@ -16309,7 +16306,7 @@
         <v>3993.55</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>122</v>
       </c>
@@ -16341,7 +16338,7 @@
         <v>163.94489999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="76"/>
@@ -16355,7 +16352,7 @@
       <c r="L36" s="78"/>
       <c r="M36" s="79"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="80" t="s">
@@ -16377,7 +16374,7 @@
       </c>
       <c r="M37" s="81"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="74" t="s">
@@ -16407,7 +16404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="74" t="s">
@@ -16437,7 +16434,7 @@
         <v>-2039.63</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="83" t="s">
@@ -16488,25 +16485,25 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="25.21875" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" customWidth="1"/>
-    <col min="6" max="6" width="29.21875" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1"/>
-    <col min="8" max="8" width="20.77734375" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1"/>
     <col min="10" max="10" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="170" t="s">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="172" t="s">
+      <c r="B1" s="178" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="100" t="s">
@@ -16534,9 +16531,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="171"/>
-      <c r="B2" s="173"/>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="177"/>
+      <c r="B2" s="179"/>
       <c r="C2" s="101" t="s">
         <v>5</v>
       </c>
@@ -16562,8 +16559,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="174" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="180" t="s">
         <v>123</v>
       </c>
       <c r="B3" s="16" t="s">
@@ -16600,8 +16597,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="175"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="181"/>
       <c r="B4" s="17" t="s">
         <v>7</v>
       </c>
@@ -16636,8 +16633,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="175"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="181"/>
       <c r="B5" s="20" t="s">
         <v>6</v>
       </c>
@@ -16672,8 +16669,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="175"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="181"/>
       <c r="B6" s="18" t="s">
         <v>13</v>
       </c>
@@ -16704,8 +16701,8 @@
         <v>520.55200000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="175"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="181"/>
       <c r="B7" s="18" t="s">
         <v>11</v>
       </c>
@@ -16736,8 +16733,8 @@
         <v>285.84800000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="175"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="181"/>
       <c r="B8" s="18" t="s">
         <v>12</v>
       </c>
@@ -16768,8 +16765,8 @@
         <v>178.69399999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="175"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="181"/>
       <c r="B9" s="18" t="s">
         <v>9</v>
       </c>
@@ -16800,8 +16797,8 @@
         <v>178.733</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="175"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="181"/>
       <c r="B10" s="18" t="s">
         <v>10</v>
       </c>
@@ -16832,8 +16829,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="176"/>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="182"/>
       <c r="B11" s="19" t="s">
         <v>14</v>
       </c>
@@ -16864,8 +16861,8 @@
         <v>1506.79</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="177" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="183" t="s">
         <v>124</v>
       </c>
       <c r="B12" s="16" t="s">
@@ -16902,8 +16899,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="175"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="181"/>
       <c r="B13" s="17" t="s">
         <v>7</v>
       </c>
@@ -16938,8 +16935,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="175"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="181"/>
       <c r="B14" s="17" t="s">
         <v>8</v>
       </c>
@@ -16974,8 +16971,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="175"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="181"/>
       <c r="B15" s="18" t="s">
         <v>13</v>
       </c>
@@ -17006,8 +17003,8 @@
         <v>375.42399999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="175"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="181"/>
       <c r="B16" s="18" t="s">
         <v>11</v>
       </c>
@@ -17038,8 +17035,8 @@
         <v>1402.83</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="175"/>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="181"/>
       <c r="B17" s="18" t="s">
         <v>12</v>
       </c>
@@ -17070,8 +17067,8 @@
         <v>1474.27</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="175"/>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="181"/>
       <c r="B18" s="18" t="s">
         <v>9</v>
       </c>
@@ -17102,8 +17099,8 @@
         <v>1113.83</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="175"/>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="181"/>
       <c r="B19" s="18" t="s">
         <v>10</v>
       </c>
@@ -17134,8 +17131,8 @@
         <v>1370.96</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="176"/>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="182"/>
       <c r="B20" s="21" t="s">
         <v>14</v>
       </c>
@@ -17166,8 +17163,8 @@
         <v>1506.79</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="167" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="173" t="s">
         <v>125</v>
       </c>
       <c r="B21" s="16" t="s">
@@ -17203,8 +17200,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="168"/>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="174"/>
       <c r="B22" s="17" t="s">
         <v>7</v>
       </c>
@@ -17238,8 +17235,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="168"/>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="174"/>
       <c r="B23" s="17" t="s">
         <v>8</v>
       </c>
@@ -17273,8 +17270,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="168"/>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="174"/>
       <c r="B24" s="18" t="s">
         <v>15</v>
       </c>
@@ -17305,8 +17302,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="168"/>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="174"/>
       <c r="B25" s="18" t="s">
         <v>11</v>
       </c>
@@ -17337,8 +17334,8 @@
         <v>352.214</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="168"/>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="174"/>
       <c r="B26" s="18" t="s">
         <v>12</v>
       </c>
@@ -17369,8 +17366,8 @@
         <v>1146.97</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="168"/>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="174"/>
       <c r="B27" s="18" t="s">
         <v>9</v>
       </c>
@@ -17401,8 +17398,8 @@
         <v>222.14</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="168"/>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="174"/>
       <c r="B28" s="18" t="s">
         <v>10</v>
       </c>
@@ -17433,8 +17430,8 @@
         <v>653.12199999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="169"/>
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="175"/>
       <c r="B29" s="21" t="s">
         <v>16</v>
       </c>
@@ -17465,8 +17462,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="167" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="173" t="s">
         <v>126</v>
       </c>
       <c r="B30" s="16" t="s">
@@ -17499,8 +17496,8 @@
       <c r="I30" s="1"/>
       <c r="J30" s="98"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="168"/>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="174"/>
       <c r="B31" s="17" t="s">
         <v>7</v>
       </c>
@@ -17531,8 +17528,8 @@
       <c r="I31" s="2"/>
       <c r="J31" s="99"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="168"/>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="174"/>
       <c r="B32" s="17" t="s">
         <v>8</v>
       </c>
@@ -17563,8 +17560,8 @@
       <c r="I32" s="2"/>
       <c r="J32" s="99"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="168"/>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="174"/>
       <c r="B33" s="18" t="s">
         <v>15</v>
       </c>
@@ -17595,8 +17592,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="168"/>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="174"/>
       <c r="B34" s="18" t="s">
         <v>11</v>
       </c>
@@ -17627,8 +17624,8 @@
         <v>352.214</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="168"/>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="174"/>
       <c r="B35" s="18" t="s">
         <v>12</v>
       </c>
@@ -17659,8 +17656,8 @@
         <v>1146.97</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="168"/>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="174"/>
       <c r="B36" s="18" t="s">
         <v>9</v>
       </c>
@@ -17691,8 +17688,8 @@
         <v>222.14</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="168"/>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="174"/>
       <c r="B37" s="18" t="s">
         <v>10</v>
       </c>
@@ -17723,8 +17720,8 @@
         <v>653.12199999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="169"/>
+    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="175"/>
       <c r="B38" s="19" t="s">
         <v>16</v>
       </c>
@@ -17755,47 +17752,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="56" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="56" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="56" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>23</v>
       </c>
@@ -17823,23 +17820,23 @@
       <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="16" width="18.44140625" customWidth="1"/>
-    <col min="18" max="18" width="12.44140625" customWidth="1"/>
-    <col min="19" max="19" width="16.44140625" customWidth="1"/>
-    <col min="20" max="20" width="17.33203125" customWidth="1"/>
-    <col min="21" max="21" width="12.77734375" customWidth="1"/>
-    <col min="25" max="25" width="23.44140625" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" customWidth="1"/>
+    <col min="20" max="20" width="17.28515625" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" customWidth="1"/>
+    <col min="25" max="25" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="43.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -17913,8 +17910,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="181" t="s">
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="187" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="26" t="s">
@@ -18004,8 +18001,8 @@
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
     </row>
-    <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="182"/>
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="188"/>
       <c r="B3" s="27" t="s">
         <v>10</v>
       </c>
@@ -18089,14 +18086,14 @@
       <c r="X3" s="35">
         <v>1.2</v>
       </c>
-      <c r="Y3" s="178" t="s">
+      <c r="Y3" s="184" t="s">
         <v>44</v>
       </c>
-      <c r="Z3" s="179"/>
-      <c r="AA3" s="180"/>
-    </row>
-    <row r="4" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="182"/>
+      <c r="Z3" s="185"/>
+      <c r="AA3" s="186"/>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="188"/>
       <c r="B4" s="27" t="s">
         <v>11</v>
       </c>
@@ -18190,8 +18187,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="182"/>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="188"/>
       <c r="B5" s="27" t="s">
         <v>12</v>
       </c>
@@ -18285,8 +18282,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="182"/>
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="188"/>
       <c r="B6" s="27" t="s">
         <v>13</v>
       </c>
@@ -18380,8 +18377,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="183"/>
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="189"/>
       <c r="B7" s="105" t="s">
         <v>14</v>
       </c>
@@ -18475,8 +18472,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="181" t="s">
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="187" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="28" t="s">
@@ -18566,8 +18563,8 @@
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
     </row>
-    <row r="9" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="182"/>
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="188"/>
       <c r="B9" s="27" t="s">
         <v>10</v>
       </c>
@@ -18655,8 +18652,8 @@
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
     </row>
-    <row r="10" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="182"/>
+    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="188"/>
       <c r="B10" s="27" t="s">
         <v>11</v>
       </c>
@@ -18744,8 +18741,8 @@
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
     </row>
-    <row r="11" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="182"/>
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="188"/>
       <c r="B11" s="27" t="s">
         <v>12</v>
       </c>
@@ -18833,8 +18830,8 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
     </row>
-    <row r="12" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="182"/>
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="188"/>
       <c r="B12" s="27" t="s">
         <v>15</v>
       </c>
@@ -18922,8 +18919,8 @@
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
     </row>
-    <row r="13" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="183"/>
+    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="189"/>
       <c r="B13" s="105" t="s">
         <v>16</v>
       </c>
@@ -19011,12 +19008,12 @@
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="L14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="R16" s="51"/>
     </row>
   </sheetData>
@@ -19053,14 +19050,14 @@
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="56" t="s">
         <v>107</v>
       </c>
@@ -19082,19 +19079,19 @@
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>166</v>
       </c>
       <c r="K1" s="66"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -19108,7 +19105,7 @@
         <v>0.62350000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
         <v>177</v>
       </c>
@@ -19116,7 +19113,7 @@
         <v>0.38229999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>171</v>
       </c>
@@ -19125,7 +19122,7 @@
         <v>0.50290000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -19139,7 +19136,7 @@
         <v>0.48670000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>177</v>
       </c>
@@ -19147,7 +19144,7 @@
         <v>0.51459999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>171</v>
       </c>
@@ -19156,15 +19153,15 @@
         <v>0.50065000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K15" s="66"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="56" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -19173,12 +19170,12 @@
       </c>
       <c r="K22" s="66"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>173</v>
       </c>
@@ -19186,7 +19183,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>172</v>
       </c>
@@ -19194,12 +19191,12 @@
         <v>271</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -19207,12 +19204,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
         <v>173</v>
       </c>
@@ -19220,7 +19217,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
         <v>172</v>
       </c>
@@ -19228,7 +19225,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>174</v>
       </c>
@@ -19247,9 +19244,9 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>160</v>
       </c>
@@ -19257,27 +19254,27 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>165</v>
       </c>
@@ -19288,6 +19285,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000B04E478543B71439A8B446FAE864F93" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ab1d43c324b5e14d8333cd633f6ee0a0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="cedb6cce-4789-47d7-80e7-084ae43e5aeb" xmlns:ns3="451e9e83-0d82-4a6b-ab34-314dfff0ce35" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bac3fe62d9fb2ad2b67ec932b03bcfea" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -19559,15 +19565,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -19583,13 +19580,41 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35B225BC-A8A8-4D37-BD8E-BDD272FE0DDD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D40F7CA3-E33B-49BA-863C-7120F1E6FCE1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D40F7CA3-E33B-49BA-863C-7120F1E6FCE1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35B225BC-A8A8-4D37-BD8E-BDD272FE0DDD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="cedb6cce-4789-47d7-80e7-084ae43e5aeb"/>
+    <ds:schemaRef ds:uri="451e9e83-0d82-4a6b-ab34-314dfff0ce35"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{768A8595-8FC4-470A-92DD-90B6E1F85AAC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{768A8595-8FC4-470A-92DD-90B6E1F85AAC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cedb6cce-4789-47d7-80e7-084ae43e5aeb"/>
+    <ds:schemaRef ds:uri="451e9e83-0d82-4a6b-ab34-314dfff0ce35"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>